--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
   <si>
     <r>
       <rPr>
@@ -1923,24 +1923,42 @@
     <t>sms_enable</t>
   </si>
   <si>
-    <t>notify_message_setting-31</t>
+    <t>notify_message_setting-8</t>
   </si>
   <si>
     <t>agile</t>
   </si>
   <si>
+    <t>ISSUECREATE</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>defaultValue</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>notify_message_setting-9</t>
+  </si>
+  <si>
+    <t>ISSUEASSIGNEE</t>
+  </si>
+  <si>
+    <t>notify_message_setting-10</t>
+  </si>
+  <si>
+    <t>ISSUESOLVE</t>
+  </si>
+  <si>
+    <t>notify_message_setting-11</t>
+  </si>
+  <si>
     <t>ISSUECHANGESTATUS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>defaultValue</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>notify_message_setting_target</t>
   </si>
   <si>
@@ -1951,6 +1969,27 @@
   </si>
   <si>
     <t>#message_setting_id</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-14</t>
+  </si>
+  <si>
+    <t>assignee</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-15</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-16</t>
+  </si>
+  <si>
+    <t>reporter</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-17</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-18</t>
   </si>
 </sst>
 </file>
@@ -1958,10 +1997,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2040,14 +2079,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2061,10 +2124,47 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2073,6 +2173,14 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2098,48 +2206,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2148,36 +2217,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2259,13 +2298,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2277,13 +2316,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2295,19 +2400,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2319,85 +2466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2409,37 +2478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2555,17 +2594,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2575,21 +2608,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2605,6 +2623,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2626,15 +2659,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2643,149 +2667,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -3495,10 +3534,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3600,30 +3639,183 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+    <row r="9" spans="5:12">
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12">
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12">
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>72</v>
+      <c r="F13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" customFormat="true" spans="5:8">
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" t="str">
+        <f>项目层发送设置!$E$8</f>
+        <v>notify_message_setting-8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="true" spans="5:8">
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="str">
+        <f>项目层发送设置!$E$9</f>
+        <v>notify_message_setting-9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="true" spans="5:8">
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" t="str">
+        <f>项目层发送设置!$E$9</f>
+        <v>notify_message_setting-9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="true" spans="5:8">
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" t="str">
+        <f>项目层发送设置!$E$10</f>
+        <v>notify_message_setting-10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="true" spans="5:8">
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" t="str">
+        <f>项目层发送设置!$E$10</f>
+        <v>notify_message_setting-10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_message\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747556F6-F3C4-4744-8B20-937C721B5B00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28770" windowHeight="10305" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -16,18 +22,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="90">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -46,6 +53,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -58,6 +66,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -76,6 +85,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -94,6 +104,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -112,6 +123,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -143,6 +155,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -161,6 +174,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -179,6 +193,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -200,6 +215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -220,6 +236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -240,6 +257,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -260,6 +278,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -280,6 +299,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -291,6 +311,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -309,6 +330,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -320,6 +342,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -338,6 +361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -356,6 +380,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -374,6 +399,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -392,6 +418,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -439,6 +466,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -457,6 +485,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -475,6 +504,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -493,6 +523,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -504,6 +535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -522,6 +554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -540,6 +573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -559,6 +593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -577,6 +612,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -596,6 +632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -614,6 +651,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -625,6 +663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -643,6 +682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -661,6 +701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -684,6 +725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -702,6 +744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -720,6 +763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -738,6 +782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -756,6 +801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -767,6 +813,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -785,6 +832,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -795,6 +843,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -815,6 +864,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -825,6 +875,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -843,6 +894,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -861,6 +913,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -884,6 +937,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -902,6 +956,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -921,6 +976,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -940,6 +996,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -959,6 +1016,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -979,6 +1037,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -998,6 +1057,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1032,6 +1092,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1052,6 +1113,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1063,6 +1125,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1081,6 +1144,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1101,6 +1165,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1119,6 +1184,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1131,6 +1197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1149,6 +1216,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1167,6 +1235,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1185,6 +1254,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1199,6 +1269,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1217,6 +1288,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1235,6 +1307,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1253,6 +1326,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1271,6 +1345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1286,6 +1361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1295,6 +1371,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1313,6 +1390,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1328,6 +1406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1337,6 +1416,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1355,6 +1435,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1369,6 +1450,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1387,6 +1469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1405,6 +1488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1424,6 +1508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1447,6 +1532,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1465,6 +1551,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1483,6 +1570,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1502,6 +1590,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1522,6 +1611,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1532,6 +1622,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1541,6 +1632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1552,6 +1644,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1570,6 +1663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1588,6 +1682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1606,6 +1701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1625,6 +1721,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1643,6 +1740,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1661,6 +1759,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1680,6 +1779,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1698,6 +1798,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1716,6 +1817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1734,6 +1836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1753,6 +1856,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1764,6 +1868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1774,6 +1879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1783,6 +1889,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1794,6 +1901,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1812,6 +1920,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1823,6 +1932,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1841,6 +1951,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1860,6 +1971,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -1990,19 +2102,29 @@
   </si>
   <si>
     <t>notify_message_setting_target-18</t>
+  </si>
+  <si>
+    <t>notify_message_setting-12</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE_COMMENT</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify_message_setting_target-19</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify_message_setting_target-20</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2013,25 +2135,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2071,157 +2193,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -2250,12 +2221,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2264,8 +2237,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2296,194 +2304,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2493,11 +2315,11 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2506,14 +2328,14 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -2522,12 +2344,12 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2536,19 +2358,19 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2556,21 +2378,21 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2578,383 +2400,95 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="13" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="36">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3027,6 +2561,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3150,7 +2687,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -3174,9 +2711,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -3200,7 +2737,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -3253,7 +2790,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -3278,276 +2815,274 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="5" customWidth="true"/>
-    <col min="2" max="2" width="10.3333333333333" style="6" customWidth="true"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="true"/>
-    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="true"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="true"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="true"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="true"/>
-    <col min="8" max="8" width="22" customWidth="true"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="true"/>
-    <col min="10" max="10" width="27" customWidth="true"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="true"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="true"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="true"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="true"/>
+    <col min="1" max="1" width="15.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="true" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="true" spans="3:7">
-      <c r="C3" s="10" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="11" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="12" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="14" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" ht="47.25" spans="3:6">
-      <c r="C9" s="16" t="s">
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="47.25" spans="3:5">
-      <c r="C10" s="18" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="63" spans="3:5">
-      <c r="C11" s="14" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="14" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" ht="31.5" spans="3:5">
-      <c r="C15" s="19" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="22" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="22" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="22" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="22" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="true" spans="3:5">
-      <c r="C25" s="24" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="true" spans="3:5">
-      <c r="C26" s="15" t="s">
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" ht="47.25" spans="3:3">
-      <c r="C27" s="25" t="s">
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="21" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="31.1111111111111" customWidth="true"/>
-    <col min="7" max="7" width="21" customWidth="true"/>
-    <col min="10" max="10" width="19.0814814814815" customWidth="true"/>
+    <col min="5" max="5" width="31.109375" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3561,7 +3096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:13">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3613,7 +3148,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="5:12">
+    <row r="8" spans="1:13">
       <c r="E8" t="s">
         <v>63</v>
       </c>
@@ -3639,7 +3174,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="5:12">
+    <row r="9" spans="1:13">
       <c r="E9" t="s">
         <v>69</v>
       </c>
@@ -3665,7 +3200,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="5:12">
+    <row r="10" spans="1:13">
       <c r="E10" t="s">
         <v>71</v>
       </c>
@@ -3691,7 +3226,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="5:12">
+    <row r="11" spans="1:13">
       <c r="E11" t="s">
         <v>73</v>
       </c>
@@ -3717,68 +3252,79 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+    <row r="12" spans="1:13">
+      <c r="E12" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" customFormat="true" spans="5:8">
-      <c r="E14" t="s">
+    <row r="15" spans="1:13">
+      <c r="E15" t="s">
         <v>79</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>80</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>66</v>
       </c>
-      <c r="H14" t="str">
+      <c r="H15" t="str">
         <f>项目层发送设置!$E$8</f>
         <v>notify_message_setting-8</v>
       </c>
     </row>
-    <row r="15" customFormat="true" spans="5:8">
-      <c r="E15" t="s">
+    <row r="16" spans="1:13">
+      <c r="E16" t="s">
         <v>81</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>80</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" t="str">
-        <f>项目层发送设置!$E$9</f>
-        <v>notify_message_setting-9</v>
-      </c>
-    </row>
-    <row r="16" customFormat="true" spans="5:8">
-      <c r="E16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" t="s">
-        <v>83</v>
       </c>
       <c r="G16" t="s">
         <v>66</v>
@@ -3788,27 +3334,27 @@
         <v>notify_message_setting-9</v>
       </c>
     </row>
-    <row r="17" customFormat="true" spans="5:8">
+    <row r="17" spans="5:8">
       <c r="E17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
         <v>66</v>
       </c>
       <c r="H17" t="str">
-        <f>项目层发送设置!$E$10</f>
-        <v>notify_message_setting-10</v>
-      </c>
-    </row>
-    <row r="18" customFormat="true" spans="5:8">
+        <f>项目层发送设置!$E$9</f>
+        <v>notify_message_setting-9</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8">
       <c r="E18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
         <v>66</v>
@@ -3818,8 +3364,54 @@
         <v>notify_message_setting-10</v>
       </c>
     </row>
+    <row r="19" spans="5:8">
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" t="str">
+        <f>项目层发送设置!$E$10</f>
+        <v>notify_message_setting-10</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" t="str">
+        <f>项目层发送设置!$E$12</f>
+        <v>notify_message_setting-12</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="E21" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" t="str">
+        <f>项目层发送设置!$E$12</f>
+        <v>notify_message_setting-12</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747556F6-F3C4-4744-8B20-937C721B5B00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50322ADC-4EA3-4F35-979E-3D1C129F8D06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
   <si>
     <r>
       <rPr>
@@ -2467,11 +2467,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2482,7 +2483,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2851,11 +2851,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
@@ -2868,17 +2868,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="32"/>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -2989,11 +2989,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="18" t="s">
@@ -3070,8 +3070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3253,13 +3253,13 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="31" t="s">
         <v>86</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="31" t="s">
         <v>87</v>
       </c>
       <c r="H12" t="s">
@@ -3274,8 +3274,8 @@
       <c r="K12" t="s">
         <v>68</v>
       </c>
-      <c r="L12" t="s">
-        <v>66</v>
+      <c r="L12">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3380,7 +3380,7 @@
       </c>
     </row>
     <row r="20" spans="5:8">
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="31" t="s">
         <v>88</v>
       </c>
       <c r="F20" t="s">
@@ -3395,7 +3395,7 @@
       </c>
     </row>
     <row r="21" spans="5:8">
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="31" t="s">
         <v>89</v>
       </c>
       <c r="F21" t="s">

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_message\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/hzero_message/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50322ADC-4EA3-4F35-979E-3D1C129F8D06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73528F8-96B3-834C-BB13-96906070D0FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19660" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,22 @@
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="98">
   <si>
     <r>
       <rPr>
@@ -44,6 +55,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge</t>
@@ -76,6 +88,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
@@ -95,6 +108,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -114,6 +128,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
@@ -165,6 +180,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -184,6 +200,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -203,6 +220,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -226,6 +244,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -247,6 +266,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -269,6 +289,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -290,6 +311,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -321,6 +343,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -352,6 +375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -371,6 +395,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
@@ -390,6 +415,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -409,6 +435,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -428,6 +455,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>!</t>
@@ -457,6 +485,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -476,6 +505,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -495,6 +525,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -514,6 +545,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -545,6 +577,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -564,6 +597,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -583,6 +617,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -603,6 +638,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -622,6 +658,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
@@ -642,6 +679,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -673,6 +711,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
@@ -692,6 +731,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -716,6 +756,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -735,6 +776,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -754,6 +796,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -773,6 +816,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -792,6 +836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -823,6 +868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -854,6 +900,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -885,6 +932,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -904,6 +952,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -928,6 +977,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
@@ -947,6 +997,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -966,6 +1017,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -986,6 +1038,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1006,6 +1059,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1026,6 +1080,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
@@ -1047,6 +1102,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1067,6 +1123,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1083,6 +1140,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
@@ -1104,6 +1162,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
@@ -1135,6 +1194,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1154,6 +1214,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1175,6 +1236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1207,6 +1269,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1226,6 +1289,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1245,6 +1309,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1279,6 +1344,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1298,6 +1364,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
@@ -1317,6 +1384,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1336,6 +1404,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1381,6 +1450,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1426,6 +1496,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1460,6 +1531,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1479,6 +1551,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1498,6 +1571,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1518,6 +1592,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1542,6 +1617,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1561,6 +1637,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1580,6 +1657,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1600,6 +1678,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1654,6 +1733,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1673,6 +1753,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1692,6 +1773,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
@@ -1712,6 +1794,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1731,6 +1814,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
@@ -1750,6 +1834,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
@@ -1769,6 +1854,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
@@ -1789,6 +1875,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1808,6 +1895,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
@@ -1827,6 +1915,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
@@ -1846,6 +1935,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
@@ -1911,6 +2001,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1942,6 +2033,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1961,6 +2053,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -2083,48 +2176,76 @@
     <t>#message_setting_id</t>
   </si>
   <si>
-    <t>notify_message_setting_target-14</t>
-  </si>
-  <si>
     <t>assignee</t>
   </si>
   <si>
-    <t>notify_message_setting_target-15</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-16</t>
-  </si>
-  <si>
     <t>reporter</t>
   </si>
   <si>
+    <t>notify_message_setting_target-18</t>
+  </si>
+  <si>
+    <t>notify_message_setting-12</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE_COMMENT</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPRINT_DELAY</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify_message_setting-13</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE_DELAY</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify_message_setting-14</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>notify_message_setting_target-17</t>
-  </si>
-  <si>
-    <t>notify_message_setting_target-18</t>
-  </si>
-  <si>
-    <t>notify_message_setting-12</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISSUE_COMMENT</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>notify_message_setting_target-19</t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>notify_message_setting_target-20</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify_message_setting_target-21</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-22</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-23</t>
+  </si>
+  <si>
+    <t>projectOwner</t>
+  </si>
+  <si>
+    <t>assignee</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify_message_setting_target-24</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2159,6 +2280,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2166,36 +2288,42 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2215,6 +2343,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2235,33 +2364,12 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2831,22 +2939,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
@@ -2860,7 +2968,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
@@ -2874,7 +2982,7 @@
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
     </row>
-    <row r="4" spans="1:8" ht="18">
+    <row r="4" spans="1:8" ht="19">
       <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
@@ -2895,7 +3003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
@@ -2915,7 +3023,7 @@
       </c>
       <c r="E8" s="27"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="57">
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -2929,7 +3037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="57">
       <c r="C10" s="15" t="s">
         <v>17</v>
       </c>
@@ -2940,7 +3048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="76">
       <c r="C11" s="11" t="s">
         <v>20</v>
       </c>
@@ -2951,7 +3059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="19">
       <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
@@ -2972,7 +3080,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="38">
       <c r="C15" s="16" t="s">
         <v>26</v>
       </c>
@@ -2995,7 +3103,7 @@
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
     </row>
-    <row r="20" spans="3:5" ht="18">
+    <row r="20" spans="3:5">
       <c r="C20" s="18" t="s">
         <v>31</v>
       </c>
@@ -3003,7 +3111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="18" t="s">
         <v>33</v>
       </c>
@@ -3011,7 +3119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="18" t="s">
         <v>35</v>
       </c>
@@ -3019,7 +3127,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="18" t="s">
         <v>37</v>
       </c>
@@ -3045,7 +3153,7 @@
       </c>
       <c r="E26" s="32"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
+    <row r="27" spans="3:5" ht="57">
       <c r="C27" s="21" t="s">
         <v>43</v>
       </c>
@@ -3060,7 +3168,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -3068,18 +3176,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3254,13 +3363,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="E12" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
         <v>66</v>
@@ -3278,139 +3387,221 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:13">
+      <c r="E13" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="14" spans="1:13">
-      <c r="A14" t="s">
+      <c r="E14" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
         <v>50</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="E15" t="s">
+    <row r="17" spans="5:8">
+      <c r="E17" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
         <v>79</v>
       </c>
-      <c r="F15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="G17" t="s">
         <v>66</v>
       </c>
-      <c r="H15" t="str">
+      <c r="H17" t="str">
         <f>项目层发送设置!$E$8</f>
         <v>notify_message_setting-8</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="E16" t="s">
+    <row r="18" spans="5:8">
+      <c r="E18" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="F16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
         <v>66</v>
       </c>
-      <c r="H16" t="str">
+      <c r="H18" t="str">
         <f>项目层发送设置!$E$9</f>
         <v>notify_message_setting-9</v>
       </c>
     </row>
-    <row r="17" spans="5:8">
-      <c r="E17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" t="s">
+    <row r="19" spans="5:8">
+      <c r="E19" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
         <v>66</v>
       </c>
-      <c r="H17" t="str">
+      <c r="H19" t="str">
         <f>项目层发送设置!$E$9</f>
         <v>notify_message_setting-9</v>
       </c>
     </row>
-    <row r="18" spans="5:8">
-      <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" t="s">
+    <row r="20" spans="5:8">
+      <c r="E20" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" t="s">
         <v>66</v>
       </c>
-      <c r="H18" t="str">
+      <c r="H20" t="str">
         <f>项目层发送设置!$E$10</f>
         <v>notify_message_setting-10</v>
       </c>
     </row>
-    <row r="19" spans="5:8">
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" t="s">
+    <row r="21" spans="5:8">
+      <c r="E21" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s">
         <v>66</v>
       </c>
-      <c r="H19" t="str">
+      <c r="H21" t="str">
         <f>项目层发送设置!$E$10</f>
         <v>notify_message_setting-10</v>
       </c>
     </row>
-    <row r="20" spans="5:8">
-      <c r="E20" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" t="s">
+    <row r="22" spans="5:8">
+      <c r="E22" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
         <v>66</v>
       </c>
-      <c r="H20" t="str">
+      <c r="H22" t="str">
         <f>项目层发送设置!$E$12</f>
         <v>notify_message_setting-12</v>
       </c>
     </row>
-    <row r="21" spans="5:8">
-      <c r="E21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" t="s">
+    <row r="23" spans="5:8">
+      <c r="E23" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
         <v>66</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H23" t="str">
         <f>项目层发送设置!$E$12</f>
         <v>notify_message_setting-12</v>
       </c>
     </row>
+    <row r="24" spans="5:8">
+      <c r="E24" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" t="str">
+        <f>项目层发送设置!$E$13</f>
+        <v>notify_message_setting-13</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8">
+      <c r="E25" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" t="str">
+        <f>项目层发送设置!$E$14</f>
+        <v>notify_message_setting-14</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/hzero_message/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73528F8-96B3-834C-BB13-96906070D0FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19660" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22943" windowHeight="9935" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,30 +16,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -55,7 +37,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge</t>
@@ -65,7 +46,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -78,7 +58,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -88,7 +67,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
@@ -98,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -108,7 +85,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -118,7 +94,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -128,7 +103,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
@@ -138,7 +112,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -170,7 +143,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -180,7 +152,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -190,7 +161,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -200,7 +170,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -210,7 +179,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -220,7 +188,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -233,7 +200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -244,7 +210,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -255,7 +220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -266,7 +230,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -277,7 +240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -289,7 +251,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -299,7 +260,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -311,7 +271,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -321,7 +280,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -333,7 +291,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -343,7 +300,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -353,7 +309,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -365,7 +320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -375,7 +329,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -385,7 +338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -395,7 +347,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
@@ -405,7 +356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -415,7 +365,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -425,7 +374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -435,7 +383,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -445,7 +392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -455,7 +401,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>!</t>
@@ -485,7 +430,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -495,7 +439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -505,7 +448,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -515,7 +457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -525,7 +466,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -535,7 +475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -545,7 +484,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -555,7 +493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -567,7 +504,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -577,7 +513,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -587,7 +522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -597,7 +531,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -607,7 +540,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -617,7 +549,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -628,7 +559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -638,7 +568,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -648,7 +577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -658,7 +586,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
@@ -669,7 +596,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -679,7 +605,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -689,7 +614,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -701,7 +625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -711,7 +634,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
@@ -721,7 +643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -731,7 +652,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -741,7 +661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -756,7 +675,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -766,7 +684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -776,7 +693,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -786,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -796,7 +711,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -806,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -816,7 +729,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -826,7 +738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -836,7 +747,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -846,7 +756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -858,7 +767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -868,7 +776,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -878,7 +785,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -889,7 +795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -900,7 +805,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -911,7 +815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -922,7 +825,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -932,7 +834,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -942,7 +843,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -952,7 +852,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -962,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -977,7 +875,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
@@ -987,7 +884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -997,7 +893,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1007,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -1017,7 +911,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1028,7 +921,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -1038,7 +930,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1049,7 +940,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1059,7 +949,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1070,7 +959,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1080,7 +968,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
@@ -1092,7 +979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1102,7 +988,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1113,7 +998,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1123,7 +1007,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1140,7 +1023,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
@@ -1150,7 +1032,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1162,7 +1043,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
@@ -1172,7 +1052,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1184,7 +1063,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1194,7 +1072,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1204,7 +1081,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1214,7 +1090,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1226,7 +1101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1236,7 +1110,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1246,7 +1119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1259,7 +1131,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1269,7 +1140,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1279,7 +1149,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1289,7 +1158,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1299,7 +1167,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1309,7 +1176,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1319,7 +1185,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1334,7 +1199,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1344,7 +1208,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1354,7 +1217,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1364,7 +1226,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
@@ -1374,7 +1235,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1384,7 +1244,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1394,7 +1253,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1404,7 +1262,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1414,7 +1271,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1430,7 +1286,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1440,7 +1295,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1450,7 +1304,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1460,7 +1313,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1476,7 +1328,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1486,7 +1337,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1496,7 +1346,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1506,7 +1355,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1521,7 +1369,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1531,7 +1378,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1541,7 +1387,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1551,7 +1396,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1561,7 +1405,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1571,7 +1414,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1582,7 +1424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1592,7 +1433,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1607,7 +1447,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1617,7 +1456,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1627,7 +1465,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1637,7 +1474,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1647,7 +1483,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1657,7 +1492,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1668,7 +1502,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1678,7 +1511,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1690,7 +1522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1701,7 +1532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1711,7 +1541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1723,7 +1552,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1733,7 +1561,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1743,7 +1570,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1753,7 +1579,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1763,7 +1588,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1773,7 +1597,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
@@ -1783,7 +1606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1794,7 +1616,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1804,7 +1625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1814,7 +1634,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
@@ -1824,7 +1643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1834,7 +1652,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
@@ -1844,7 +1661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1854,7 +1670,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
@@ -1865,7 +1680,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1875,7 +1689,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1885,7 +1698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1895,7 +1707,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
@@ -1905,7 +1716,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1915,7 +1725,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
@@ -1925,7 +1734,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1935,7 +1743,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
@@ -1946,7 +1753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1958,7 +1764,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1969,7 +1774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1979,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1991,7 +1794,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -2001,7 +1803,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -2011,7 +1812,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -2023,7 +1823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -2033,7 +1832,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -2043,7 +1841,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -2053,7 +1850,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -2064,7 +1860,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2164,6 +1959,30 @@
     <t>ISSUECHANGESTATUS</t>
   </si>
   <si>
+    <t>notify_message_setting-12</t>
+  </si>
+  <si>
+    <t>ISSUE_COMMENT</t>
+  </si>
+  <si>
+    <t>notify_message_setting-13</t>
+  </si>
+  <si>
+    <t>SPRINT_DELAY</t>
+  </si>
+  <si>
+    <t>notify_message_setting-14</t>
+  </si>
+  <si>
+    <t>ISSUE_DELAY</t>
+  </si>
+  <si>
+    <t>notify_message_setting-15</t>
+  </si>
+  <si>
+    <t>ISSUE_DAILY_WORK</t>
+  </si>
+  <si>
     <t>notify_message_setting_target</t>
   </si>
   <si>
@@ -2176,46 +1995,21 @@
     <t>#message_setting_id</t>
   </si>
   <si>
+    <t>notify_message_setting_target-17</t>
+  </si>
+  <si>
     <t>assignee</t>
   </si>
   <si>
+    <t>notify_message_setting_target-18</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-19</t>
+  </si>
+  <si>
     <t>reporter</t>
   </si>
   <si>
-    <t>notify_message_setting_target-18</t>
-  </si>
-  <si>
-    <t>notify_message_setting-12</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISSUE_COMMENT</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPRINT_DELAY</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>notify_message_setting-13</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISSUE_DELAY</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>notify_message_setting-14</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>notify_message_setting_target-17</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>notify_message_setting_target-19</t>
-  </si>
-  <si>
     <t>notify_message_setting_target-20</t>
   </si>
   <si>
@@ -2228,14 +2022,10 @@
     <t>notify_message_setting_target-23</t>
   </si>
   <si>
+    <t>notify_message_setting_target-24</t>
+  </si>
+  <si>
     <t>projectOwner</t>
-  </si>
-  <si>
-    <t>assignee</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>notify_message_setting_target-24</t>
   </si>
   <si>
     <t>notify_message_setting_target-25</t>
@@ -2244,8 +2034,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2256,31 +2052,36 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2288,42 +2089,187 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2343,45 +2289,28 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2412,8 +2341,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2425,28 +2540,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2471,12 +2570,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2485,13 +2593,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2506,6 +2612,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2514,10 +2629,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2525,6 +2882,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2533,71 +2891,117 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2666,14 +3070,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2934,264 +3330,268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5694444444444" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.2847222222222" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
+    <col min="4" max="4" width="35.2847222222222" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
+    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
+    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
+    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
+    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
+    <col min="14" max="1025" width="10.2847222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="8"/>
-      <c r="C1" s="33" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="32" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:8" ht="19">
-      <c r="C4" s="35" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="11" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="1:8" ht="57">
-      <c r="C9" s="13" t="s">
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="57">
-      <c r="C10" s="15" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="76">
-      <c r="C11" s="11" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19">
-      <c r="C12" s="11" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="1:8" ht="38">
-      <c r="C15" s="16" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="18" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="18" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="18" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="18" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="20" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="32"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="12" t="s">
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="32"/>
-    </row>
-    <row r="27" spans="3:5" ht="57">
-      <c r="C27" s="21" t="s">
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5694444444444" customWidth="1"/>
+    <col min="5" max="5" width="31.1388888888889" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="10" max="10" width="19.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3205,7 +3605,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3257,7 +3657,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="5:12">
       <c r="E8" t="s">
         <v>63</v>
       </c>
@@ -3283,7 +3683,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="5:12">
       <c r="E9" t="s">
         <v>69</v>
       </c>
@@ -3309,7 +3709,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="5:12">
       <c r="E10" t="s">
         <v>71</v>
       </c>
@@ -3335,7 +3735,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="5:12">
       <c r="E11" t="s">
         <v>73</v>
       </c>
@@ -3361,15 +3761,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="E12" s="31" t="s">
-        <v>82</v>
+    <row r="12" spans="5:12">
+      <c r="E12" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="31" t="s">
-        <v>83</v>
+      <c r="G12" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="H12" t="s">
         <v>66</v>
@@ -3387,15 +3787,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="E13" s="31" t="s">
-        <v>85</v>
+    <row r="13" spans="5:12">
+      <c r="E13" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="F13" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="31" t="s">
-        <v>84</v>
+      <c r="G13" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="H13" t="s">
         <v>66</v>
@@ -3413,15 +3813,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="E14" s="31" t="s">
-        <v>87</v>
+    <row r="14" spans="5:12">
+      <c r="E14" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="F14" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>86</v>
+      <c r="G14" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="H14" t="s">
         <v>66</v>
@@ -3439,68 +3839,79 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
+    <row r="15" spans="5:12">
+      <c r="E15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8">
-      <c r="E17" s="31" t="s">
+      <c r="F17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8">
+      <c r="E18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s">
         <v>88</v>
       </c>
-      <c r="F17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>66</v>
       </c>
-      <c r="H17" t="str">
+      <c r="H18" t="str">
         <f>项目层发送设置!$E$8</f>
         <v>notify_message_setting-8</v>
       </c>
     </row>
-    <row r="18" spans="5:8">
-      <c r="E18" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" t="str">
-        <f>项目层发送设置!$E$9</f>
-        <v>notify_message_setting-9</v>
-      </c>
-    </row>
     <row r="19" spans="5:8">
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="5" t="s">
         <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
         <v>66</v>
@@ -3511,26 +3922,26 @@
       </c>
     </row>
     <row r="20" spans="5:8">
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="31" t="s">
-        <v>95</v>
+      <c r="F20" t="s">
+        <v>91</v>
       </c>
       <c r="G20" t="s">
         <v>66</v>
       </c>
       <c r="H20" t="str">
-        <f>项目层发送设置!$E$10</f>
-        <v>notify_message_setting-10</v>
+        <f>项目层发送设置!$E$9</f>
+        <v>notify_message_setting-9</v>
       </c>
     </row>
     <row r="21" spans="5:8">
-      <c r="E21" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" t="s">
-        <v>80</v>
+      <c r="E21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="G21" t="s">
         <v>66</v>
@@ -3541,26 +3952,26 @@
       </c>
     </row>
     <row r="22" spans="5:8">
-      <c r="E22" s="31" t="s">
-        <v>92</v>
+      <c r="E22" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
         <v>66</v>
       </c>
       <c r="H22" t="str">
-        <f>项目层发送设置!$E$12</f>
-        <v>notify_message_setting-12</v>
+        <f>项目层发送设置!$E$10</f>
+        <v>notify_message_setting-10</v>
       </c>
     </row>
     <row r="23" spans="5:8">
-      <c r="E23" s="31" t="s">
-        <v>93</v>
+      <c r="E23" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s">
         <v>66</v>
@@ -3571,38 +3982,53 @@
       </c>
     </row>
     <row r="24" spans="5:8">
-      <c r="E24" s="31" t="s">
-        <v>96</v>
+      <c r="E24" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s">
         <v>66</v>
       </c>
       <c r="H24" t="str">
+        <f>项目层发送设置!$E$12</f>
+        <v>notify_message_setting-12</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8">
+      <c r="E25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" t="str">
         <f>项目层发送设置!$E$13</f>
         <v>notify_message_setting-13</v>
       </c>
     </row>
-    <row r="25" spans="5:8">
-      <c r="E25" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" t="s">
+    <row r="26" spans="5:8">
+      <c r="E26" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s">
         <v>66</v>
       </c>
-      <c r="H25" t="str">
+      <c r="H26" t="str">
         <f>项目层发送设置!$E$14</f>
         <v>notify_message_setting-14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9935" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="103">
   <si>
     <r>
       <rPr>
@@ -1983,6 +1983,12 @@
     <t>ISSUE_DAILY_WORK</t>
   </si>
   <si>
+    <t>notify_message_setting-16</t>
+  </si>
+  <si>
+    <t>ISSUE_SET_PARTICIPANT</t>
+  </si>
+  <si>
     <t>notify_message_setting_target</t>
   </si>
   <si>
@@ -2029,6 +2035,12 @@
   </si>
   <si>
     <t>notify_message_setting_target-25</t>
+  </si>
+  <si>
+    <t>notify_message_setting_target-26</t>
+  </si>
+  <si>
+    <t>participant</t>
   </si>
 </sst>
 </file>
@@ -2038,10 +2050,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2070,12 +2082,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2117,39 +2123,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2161,69 +2165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2239,16 +2181,72 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2261,7 +2259,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2343,43 +2349,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2397,7 +2403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2409,7 +2427,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2421,13 +2445,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2439,7 +2481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2451,19 +2493,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2475,55 +2517,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2631,25 +2637,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2685,16 +2682,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2710,6 +2716,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2718,217 +2733,207 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2941,7 +2946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3070,6 +3075,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3325,12 +3335,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -3338,155 +3347,155 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.2847222222222" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="35.2847222222222" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
-    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
-    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.2814814814815" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
+    <col min="4" max="4" width="35.2814814814815" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
+    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
+    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
+    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
-    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
-    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
-    <col min="14" max="1025" width="10.2847222222222" customWidth="1"/>
+    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
+    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
+    <col min="14" max="1025" width="10.2814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="12"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="11"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="15" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="19" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="25" t="s">
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="28" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="22" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="30" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="31" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3496,64 +3505,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="34" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="34" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="34" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="34" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="36" t="s">
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3574,21 +3583,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="4" max="4" width="11.5694444444444" customWidth="1"/>
-    <col min="5" max="5" width="31.1388888888889" customWidth="1"/>
+    <col min="4" max="4" width="11.5703703703704" customWidth="1"/>
+    <col min="5" max="5" width="31.1407407407407" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="19.1388888888889" customWidth="1"/>
+    <col min="10" max="10" width="19.1407407407407" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3865,45 +3874,56 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+    <row r="16" spans="5:12">
+      <c r="E16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="5:8">
-      <c r="E18" s="5" t="s">
+      <c r="G18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="G18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" t="str">
-        <f>项目层发送设置!$E$8</f>
-        <v>notify_message_setting-8</v>
       </c>
     </row>
     <row r="19" spans="5:8">
@@ -3911,22 +3931,22 @@
         <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
         <v>66</v>
       </c>
       <c r="H19" t="str">
-        <f>项目层发送设置!$E$9</f>
-        <v>notify_message_setting-9</v>
+        <f>项目层发送设置!$E$8</f>
+        <v>notify_message_setting-8</v>
       </c>
     </row>
     <row r="20" spans="5:8">
       <c r="E20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
         <v>90</v>
-      </c>
-      <c r="F20" t="s">
-        <v>91</v>
       </c>
       <c r="G20" t="s">
         <v>66</v>
@@ -3940,23 +3960,23 @@
       <c r="E21" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>88</v>
+      <c r="F21" t="s">
+        <v>93</v>
       </c>
       <c r="G21" t="s">
         <v>66</v>
       </c>
       <c r="H21" t="str">
-        <f>项目层发送设置!$E$10</f>
-        <v>notify_message_setting-10</v>
+        <f>项目层发送设置!$E$9</f>
+        <v>notify_message_setting-9</v>
       </c>
     </row>
     <row r="22" spans="5:8">
       <c r="E22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="G22" t="s">
         <v>66</v>
@@ -3968,25 +3988,25 @@
     </row>
     <row r="23" spans="5:8">
       <c r="E23" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s">
         <v>66</v>
       </c>
       <c r="H23" t="str">
-        <f>项目层发送设置!$E$12</f>
-        <v>notify_message_setting-12</v>
+        <f>项目层发送设置!$E$10</f>
+        <v>notify_message_setting-10</v>
       </c>
     </row>
     <row r="24" spans="5:8">
       <c r="E24" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s">
         <v>66</v>
@@ -3998,17 +4018,17 @@
     </row>
     <row r="25" spans="5:8">
       <c r="E25" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
         <v>66</v>
       </c>
       <c r="H25" t="str">
-        <f>项目层发送设置!$E$13</f>
-        <v>notify_message_setting-13</v>
+        <f>项目层发送设置!$E$12</f>
+        <v>notify_message_setting-12</v>
       </c>
     </row>
     <row r="26" spans="5:8">
@@ -4016,14 +4036,44 @@
         <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G26" t="s">
         <v>66</v>
       </c>
       <c r="H26" t="str">
+        <f>项目层发送设置!$E$13</f>
+        <v>notify_message_setting-13</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8">
+      <c r="E27" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="str">
         <f>项目层发送设置!$E$14</f>
         <v>notify_message_setting-14</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8">
+      <c r="E28" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="str">
+        <f>项目层发送设置!$E$16</f>
+        <v>notify_message_setting-16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="9935" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
   <si>
     <r>
       <rPr>
@@ -1921,6 +1921,9 @@
   </si>
   <si>
     <t>sms_enable</t>
+  </si>
+  <si>
+    <t>dt_enable</t>
   </si>
   <si>
     <t>notify_message_setting-8</t>
@@ -2048,10 +2051,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2123,6 +2126,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2143,10 +2160,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2157,6 +2183,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2164,8 +2223,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2181,78 +2263,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2260,14 +2271,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2349,7 +2352,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2361,7 +2406,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2373,13 +2436,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2391,145 +2532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2637,51 +2640,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2705,11 +2663,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2717,8 +2696,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2733,151 +2712,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3075,11 +3078,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3335,11 +3333,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -3347,22 +3346,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703703703704" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.2814814814815" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
-    <col min="4" max="4" width="35.2814814814815" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
-    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
-    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
+    <col min="1" max="1" width="15.5694444444444" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.2847222222222" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
+    <col min="4" max="4" width="35.2847222222222" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
+    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
+    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
+    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
-    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
-    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
-    <col min="14" max="1025" width="10.2814814814815" customWidth="1"/>
+    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
+    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
+    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
+    <col min="14" max="1025" width="10.2847222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -3376,7 +3375,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
+    <row r="2" spans="5:5">
       <c r="E2" s="11"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -3390,7 +3389,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
+    <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
@@ -3411,7 +3410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" spans="3:5">
       <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
@@ -3431,7 +3430,7 @@
       </c>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
+    <row r="9" ht="52.2" spans="3:6">
       <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
@@ -3445,7 +3444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
+    <row r="10" ht="52.2" spans="3:5">
       <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
@@ -3456,7 +3455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
+    <row r="11" ht="69.6" spans="3:5">
       <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3488,7 +3487,7 @@
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
+    <row r="15" ht="34.8" spans="3:5">
       <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
@@ -3511,7 +3510,7 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
+    <row r="20" spans="3:4">
       <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
@@ -3519,7 +3518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
+    <row r="21" spans="3:4">
       <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
@@ -3527,7 +3526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
+    <row r="22" spans="3:4">
       <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
+    <row r="23" spans="3:4">
       <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
@@ -3561,7 +3560,7 @@
       </c>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
+    <row r="27" ht="52.2" spans="3:3">
       <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
@@ -3583,21 +3582,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="4" max="4" width="11.5703703703704" customWidth="1"/>
-    <col min="5" max="5" width="31.1407407407407" customWidth="1"/>
+    <col min="4" max="4" width="11.5694444444444" customWidth="1"/>
+    <col min="5" max="5" width="31.1388888888889" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="19.1407407407407" customWidth="1"/>
+    <col min="10" max="10" width="19.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3625,7 +3624,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3665,224 +3664,251 @@
       <c r="M7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="5:12">
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14">
       <c r="E8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="5:14">
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
         <v>65</v>
       </c>
-      <c r="H8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
         <v>67</v>
       </c>
-      <c r="K8" t="s">
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
         <v>68</v>
       </c>
-      <c r="L8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="5:12">
-      <c r="E9" t="s">
+      <c r="K9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>67</v>
       </c>
-      <c r="K9" t="s">
+      <c r="N9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="5:14">
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
         <v>68</v>
       </c>
-      <c r="L9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="5:12">
-      <c r="E10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" t="s">
         <v>67</v>
       </c>
-      <c r="K10" t="s">
+      <c r="N10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="5:14">
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
         <v>68</v>
       </c>
-      <c r="L10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="5:12">
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" t="s">
         <v>67</v>
       </c>
-      <c r="K11" t="s">
+      <c r="N11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="5:14">
+      <c r="E12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
         <v>68</v>
       </c>
-      <c r="L11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="5:12">
-      <c r="E12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" t="s">
-        <v>67</v>
-      </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="5:12">
+      <c r="N12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="5:14">
       <c r="E13" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" t="s">
         <v>67</v>
       </c>
-      <c r="K13" t="s">
-        <v>66</v>
-      </c>
       <c r="L13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="5:12">
+        <v>67</v>
+      </c>
+      <c r="N13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="5:14">
       <c r="E14" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" t="s">
         <v>67</v>
       </c>
-      <c r="K14" t="s">
-        <v>66</v>
-      </c>
       <c r="L14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="5:12">
+        <v>67</v>
+      </c>
+      <c r="N14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14">
       <c r="E15" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" t="s">
         <v>67</v>
       </c>
-      <c r="K15" t="s">
-        <v>66</v>
-      </c>
       <c r="L15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="5:12">
+        <v>67</v>
+      </c>
+      <c r="N15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="5:14">
       <c r="E16" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3891,12 +3917,15 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="N16">
         <v>0</v>
       </c>
     </row>
@@ -3911,30 +3940,30 @@
         <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H19" t="str">
         <f>项目层发送设置!$E$8</f>
@@ -3943,13 +3972,13 @@
     </row>
     <row r="20" spans="5:8">
       <c r="E20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" t="s">
         <v>91</v>
       </c>
-      <c r="F20" t="s">
-        <v>90</v>
-      </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H20" t="str">
         <f>项目层发送设置!$E$9</f>
@@ -3958,13 +3987,13 @@
     </row>
     <row r="21" spans="5:8">
       <c r="E21" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H21" t="str">
         <f>项目层发送设置!$E$9</f>
@@ -3973,13 +4002,13 @@
     </row>
     <row r="22" spans="5:8">
       <c r="E22" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H22" t="str">
         <f>项目层发送设置!$E$10</f>
@@ -3988,13 +4017,13 @@
     </row>
     <row r="23" spans="5:8">
       <c r="E23" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H23" t="str">
         <f>项目层发送设置!$E$10</f>
@@ -4003,13 +4032,13 @@
     </row>
     <row r="24" spans="5:8">
       <c r="E24" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H24" t="str">
         <f>项目层发送设置!$E$12</f>
@@ -4018,13 +4047,13 @@
     </row>
     <row r="25" spans="5:8">
       <c r="E25" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H25" t="str">
         <f>项目层发送设置!$E$12</f>
@@ -4033,13 +4062,13 @@
     </row>
     <row r="26" spans="5:8">
       <c r="E26" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H26" t="str">
         <f>项目层发送设置!$E$13</f>
@@ -4048,13 +4077,13 @@
     </row>
     <row r="27" spans="5:8">
       <c r="E27" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H27" t="str">
         <f>项目层发送设置!$E$14</f>
@@ -4063,10 +4092,10 @@
     </row>
     <row r="28" spans="5:8">
       <c r="E28" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G28">
         <v>0</v>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9935" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="17930" windowHeight="6860" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="106">
   <si>
     <r>
       <rPr>
@@ -1905,7 +1905,10 @@
     <t>#code</t>
   </si>
   <si>
-    <t>#project_id</t>
+    <t>#source_id</t>
+  </si>
+  <si>
+    <t>#source_level</t>
   </si>
   <si>
     <t>#env_id</t>
@@ -1936,6 +1939,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>project</t>
   </si>
   <si>
     <t>defaultValue</t>
@@ -2052,8 +2058,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -2125,6 +2131,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -2139,8 +2168,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2161,15 +2206,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2177,7 +2214,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2191,55 +2252,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2253,17 +2267,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2352,145 +2358,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2508,7 +2388,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2520,19 +2508,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2639,26 +2645,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2678,6 +2669,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2693,22 +2693,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2730,6 +2725,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2742,10 +2748,10 @@
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2754,133 +2760,133 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3078,6 +3084,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3333,12 +3344,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -3346,22 +3356,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.2847222222222" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="35.2847222222222" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
-    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
-    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.5714285714286" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.2857142857143" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.1357142857143" customWidth="1"/>
+    <col min="4" max="4" width="35.2857142857143" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="23.4214285714286" customWidth="1"/>
+    <col min="7" max="7" width="21.5714285714286" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
+    <col min="9" max="9" width="24.5714285714286" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
-    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
-    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
-    <col min="14" max="1025" width="10.2847222222222" customWidth="1"/>
+    <col min="11" max="11" width="19.1357142857143" customWidth="1"/>
+    <col min="12" max="12" width="18.5714285714286" customWidth="1"/>
+    <col min="13" max="13" width="13.1357142857143" customWidth="1"/>
+    <col min="14" max="1025" width="10.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -3430,7 +3440,7 @@
       </c>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" ht="52.2" spans="3:6">
+    <row r="9" ht="49.5" spans="3:6">
       <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
@@ -3444,7 +3454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
+    <row r="10" ht="49.5" spans="3:5">
       <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
@@ -3455,7 +3465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
+    <row r="11" ht="66" spans="3:5">
       <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3487,7 +3497,7 @@
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" ht="34.8" spans="3:5">
+    <row r="15" ht="33" spans="3:5">
       <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
@@ -3560,7 +3570,7 @@
       </c>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" ht="52.2" spans="3:3">
+    <row r="27" ht="49.5" spans="3:3">
       <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
@@ -3582,21 +3592,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="11.5694444444444" customWidth="1"/>
-    <col min="5" max="5" width="31.1388888888889" customWidth="1"/>
+    <col min="4" max="4" width="11.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="31.1357142857143" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="19.1388888888889" customWidth="1"/>
+    <col min="11" max="11" width="19.1357142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3624,7 +3634,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3655,7 +3665,7 @@
       <c r="J7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="3" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -3667,265 +3677,295 @@
       <c r="N7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="5:14">
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J8" t="s">
         <v>68</v>
       </c>
       <c r="K8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
         <v>69</v>
-      </c>
-      <c r="L8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="5:14">
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" t="s">
-        <v>67</v>
       </c>
       <c r="J9" t="s">
         <v>68</v>
       </c>
       <c r="K9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15">
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
         <v>69</v>
-      </c>
-      <c r="L9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="5:14">
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" t="s">
-        <v>67</v>
       </c>
       <c r="J10" t="s">
         <v>68</v>
       </c>
       <c r="K10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15">
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
         <v>69</v>
-      </c>
-      <c r="L10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="5:14">
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" t="s">
-        <v>67</v>
       </c>
       <c r="J11" t="s">
         <v>68</v>
       </c>
       <c r="K11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15">
+      <c r="E12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
         <v>69</v>
-      </c>
-      <c r="L11" t="s">
-        <v>67</v>
-      </c>
-      <c r="N11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="5:14">
-      <c r="E12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" t="s">
-        <v>67</v>
       </c>
       <c r="J12" t="s">
         <v>68</v>
       </c>
       <c r="K12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15">
+      <c r="E13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
         <v>69</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="5:14">
-      <c r="E13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" t="s">
-        <v>67</v>
       </c>
       <c r="J13" t="s">
         <v>68</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L13" t="s">
-        <v>67</v>
-      </c>
-      <c r="N13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="5:14">
+        <v>68</v>
+      </c>
+      <c r="M13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15">
       <c r="E14" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
         <v>68</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L14" t="s">
-        <v>67</v>
-      </c>
-      <c r="N14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="5:14">
+        <v>68</v>
+      </c>
+      <c r="M14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15">
       <c r="E15" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J15" t="s">
         <v>68</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L15" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="5:14">
+        <v>68</v>
+      </c>
+      <c r="M15" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15">
       <c r="E16" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
+      <c r="K16" t="s">
+        <v>70</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="N16">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>0</v>
       </c>
     </row>
@@ -3940,30 +3980,30 @@
         <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H19" t="str">
         <f>项目层发送设置!$E$8</f>
@@ -3972,13 +4012,13 @@
     </row>
     <row r="20" spans="5:8">
       <c r="E20" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H20" t="str">
         <f>项目层发送设置!$E$9</f>
@@ -3987,13 +4027,13 @@
     </row>
     <row r="21" spans="5:8">
       <c r="E21" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H21" t="str">
         <f>项目层发送设置!$E$9</f>
@@ -4002,13 +4042,13 @@
     </row>
     <row r="22" spans="5:8">
       <c r="E22" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H22" t="str">
         <f>项目层发送设置!$E$10</f>
@@ -4017,13 +4057,13 @@
     </row>
     <row r="23" spans="5:8">
       <c r="E23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" t="s">
         <v>96</v>
       </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H23" t="str">
         <f>项目层发送设置!$E$10</f>
@@ -4032,13 +4072,13 @@
     </row>
     <row r="24" spans="5:8">
       <c r="E24" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H24" t="str">
         <f>项目层发送设置!$E$12</f>
@@ -4047,13 +4087,13 @@
     </row>
     <row r="25" spans="5:8">
       <c r="E25" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H25" t="str">
         <f>项目层发送设置!$E$12</f>
@@ -4062,13 +4102,13 @@
     </row>
     <row r="26" spans="5:8">
       <c r="E26" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H26" t="str">
         <f>项目层发送设置!$E$13</f>
@@ -4077,13 +4117,13 @@
     </row>
     <row r="27" spans="5:8">
       <c r="E27" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H27" t="str">
         <f>项目层发送设置!$E$14</f>
@@ -4092,10 +4132,10 @@
     </row>
     <row r="28" spans="5:8">
       <c r="E28" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G28">
         <v>0</v>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_message/hzero-data-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17930" windowHeight="6860" tabRatio="597" activeTab="1"/>
+    <workbookView windowHeight="17730" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
   <si>
     <r>
       <rPr>
@@ -1927,6 +1927,9 @@
   </si>
   <si>
     <t>dt_enable</t>
+  </si>
+  <si>
+    <t>wechat_enterprise_enable</t>
   </si>
   <si>
     <t>notify_message_setting-8</t>
@@ -2057,10 +2060,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2108,6 +2111,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -2125,16 +2134,137 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2142,65 +2272,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2208,77 +2280,8 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2358,43 +2361,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2412,7 +2379,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2424,13 +2451,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2442,61 +2511,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2509,36 +2542,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2555,12 +2558,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2585,6 +2604,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2596,26 +2628,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2623,15 +2635,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2647,9 +2650,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2673,22 +2693,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2708,6 +2722,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2722,174 +2745,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2908,112 +2911,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="常规 2" xfId="14"/>
+    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
+    <cellStyle name="Bad" xfId="24" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Output" xfId="27" builtinId="21"/>
+    <cellStyle name="Currency" xfId="28" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
+    <cellStyle name="Note" xfId="30" builtinId="10"/>
+    <cellStyle name="Input" xfId="31" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
+    <cellStyle name="Good" xfId="34" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="37" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="38" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="41" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
@@ -3356,22 +3359,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5714285714286" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.2857142857143" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.1357142857143" customWidth="1"/>
-    <col min="4" max="4" width="35.2857142857143" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="23.4214285714286" customWidth="1"/>
-    <col min="7" max="7" width="21.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.2888888888889" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="35.2888888888889" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
+    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
+    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1357142857143" customWidth="1"/>
-    <col min="12" max="12" width="18.5714285714286" customWidth="1"/>
-    <col min="13" max="13" width="13.1357142857143" customWidth="1"/>
-    <col min="14" max="1025" width="10.2857142857143" customWidth="1"/>
+    <col min="11" max="11" width="19.1333333333333" customWidth="1"/>
+    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.1333333333333" customWidth="1"/>
+    <col min="14" max="1025" width="10.2888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -3381,36 +3384,36 @@
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="11"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="30" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3421,90 +3424,90 @@
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="21" t="s">
+    <row r="8" ht="17.25" spans="3:5">
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" ht="49.5" spans="3:6">
-      <c r="C9" s="24" t="s">
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" ht="47.25" spans="3:6">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="33" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="49.5" spans="3:5">
-      <c r="C10" s="27" t="s">
+    <row r="10" ht="47.25" spans="3:5">
+      <c r="C10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="66" spans="3:5">
-      <c r="C11" s="21" t="s">
+    <row r="11" ht="63" spans="3:5">
+      <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="21" t="s">
+    <row r="12" ht="17.25" spans="3:5">
+      <c r="C12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" ht="33" spans="3:5">
-      <c r="C15" s="29" t="s">
+    <row r="13" ht="17.25" spans="3:5">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" ht="17.25" spans="3:5">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" ht="31.5" spans="3:5">
+      <c r="C15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3514,38 +3517,38 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="33" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" ht="17.25" spans="3:4">
+      <c r="C20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="33" t="s">
+    <row r="21" ht="17.25" spans="3:4">
+      <c r="C21" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="33" t="s">
+    <row r="22" ht="17.25" spans="3:4">
+      <c r="C22" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="33" t="s">
+    <row r="23" ht="17.25" spans="3:4">
+      <c r="C23" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -3553,25 +3556,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" ht="49.5" spans="3:3">
-      <c r="C27" s="35" t="s">
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" ht="47.25" spans="3:3">
+      <c r="C27" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3594,19 +3597,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="11.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="31.1357142857143" customWidth="1"/>
+    <col min="4" max="4" width="11.5703703703704" customWidth="1"/>
+    <col min="5" max="5" width="31.1333333333333" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="11" max="11" width="19.1357142857143" customWidth="1"/>
+    <col min="11" max="11" width="19.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3634,7 +3637,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3680,284 +3683,311 @@
       <c r="O7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="5:15">
+      <c r="P7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16">
       <c r="E8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:16">
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
         <v>67</v>
       </c>
-      <c r="H8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
         <v>69</v>
       </c>
-      <c r="J8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="I9" t="s">
         <v>70</v>
       </c>
-      <c r="L8" t="s">
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" t="s">
         <v>71</v>
       </c>
-      <c r="M8" t="s">
-        <v>68</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="5:16">
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="5:15">
-      <c r="E9" t="s">
+      <c r="L10" t="s">
         <v>72</v>
       </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M10" t="s">
         <v>69</v>
       </c>
-      <c r="J9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="5:16">
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
         <v>70</v>
       </c>
-      <c r="L9" t="s">
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" t="s">
         <v>71</v>
       </c>
-      <c r="M9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="L11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="5:16">
+      <c r="E12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="5:15">
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M10" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="5:15">
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="5:15">
-      <c r="E12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" t="s">
-        <v>70</v>
-      </c>
       <c r="L12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="5:16">
+      <c r="E13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="5:15">
-      <c r="E13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>69</v>
       </c>
-      <c r="J13" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="5:16">
+      <c r="E14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" t="s">
         <v>70</v>
       </c>
-      <c r="L13" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" t="s">
-        <v>68</v>
-      </c>
-      <c r="O13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="5:15">
-      <c r="E14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>69</v>
       </c>
-      <c r="J14" t="s">
-        <v>68</v>
-      </c>
       <c r="K14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:16">
+      <c r="E15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" t="s">
         <v>70</v>
       </c>
-      <c r="L14" t="s">
-        <v>68</v>
-      </c>
-      <c r="M14" t="s">
-        <v>68</v>
-      </c>
-      <c r="O14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="5:15">
-      <c r="E15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>69</v>
       </c>
-      <c r="J15" t="s">
-        <v>68</v>
-      </c>
       <c r="K15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="5:15">
+        <v>69</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="5:16">
       <c r="E16" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -3966,6 +3996,9 @@
         <v>0</v>
       </c>
       <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>0</v>
       </c>
     </row>
@@ -3980,30 +4013,30 @@
         <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H19" t="str">
         <f>项目层发送设置!$E$8</f>
@@ -4012,13 +4045,13 @@
     </row>
     <row r="20" spans="5:8">
       <c r="E20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" t="s">
         <v>94</v>
       </c>
-      <c r="F20" t="s">
-        <v>93</v>
-      </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H20" t="str">
         <f>项目层发送设置!$E$9</f>
@@ -4027,13 +4060,13 @@
     </row>
     <row r="21" spans="5:8">
       <c r="E21" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H21" t="str">
         <f>项目层发送设置!$E$9</f>
@@ -4042,13 +4075,13 @@
     </row>
     <row r="22" spans="5:8">
       <c r="E22" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H22" t="str">
         <f>项目层发送设置!$E$10</f>
@@ -4057,13 +4090,13 @@
     </row>
     <row r="23" spans="5:8">
       <c r="E23" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H23" t="str">
         <f>项目层发送设置!$E$10</f>
@@ -4072,13 +4105,13 @@
     </row>
     <row r="24" spans="5:8">
       <c r="E24" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H24" t="str">
         <f>项目层发送设置!$E$12</f>
@@ -4087,13 +4120,13 @@
     </row>
     <row r="25" spans="5:8">
       <c r="E25" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H25" t="str">
         <f>项目层发送设置!$E$12</f>
@@ -4102,13 +4135,13 @@
     </row>
     <row r="26" spans="5:8">
       <c r="E26" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H26" t="str">
         <f>项目层发送设置!$E$13</f>
@@ -4117,13 +4150,13 @@
     </row>
     <row r="27" spans="5:8">
       <c r="E27" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H27" t="str">
         <f>项目层发送设置!$E$14</f>
@@ -4132,10 +4165,10 @@
     </row>
     <row r="28" spans="5:8">
       <c r="E28" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G28">
         <v>0</v>
